--- a/WHO-DATA-SETS/ExcelDataSets/20200122-sitrep-2-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200122-sitrep-2-2019-ncov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2883C3-5D49-4323-A74F-135BFD0E7484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4C629-BD0F-45D7-A6E5-C83EA4FC6CD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
@@ -20,40 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF006FC0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">I. SURVEILLANCE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006FC0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Reported incidence of confirmed 2019-nCoV cases
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Table 1. Countries, territories or areas with reported confirmed cases of 2019-nCoV, 21 January 2020</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -355,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,20 +341,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF006FC0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006FC0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -546,13 +499,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -618,9 +568,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -975,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -990,257 +937,452 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="179.45" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="5.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.7" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.7" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="D3" s="9">
+        <v>270</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="39.6" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22">
+        <v>314</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="26"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
-        <v>270</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="D24" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D25" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="26"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="26"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="26"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="26"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="26"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="26"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="26"/>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="21.6" customHeight="1">
-      <c r="A22" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23">
+      <c r="C40" s="21"/>
+      <c r="D40" s="22">
         <v>314</v>
       </c>
-      <c r="E22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A20"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200122-sitrep-2-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200122-sitrep-2-2019-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4C629-BD0F-45D7-A6E5-C83EA4FC6CD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60295C0C-C12B-4109-A6AC-7489861DC8F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -333,15 +333,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -350,8 +341,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -499,25 +490,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -527,27 +509,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -557,23 +524,41 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -922,13 +907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -937,452 +922,240 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.7" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="16">
         <v>270</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="17">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="8" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="13">
+      <c r="C17" s="4"/>
+      <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="11" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14">
+      <c r="C18" s="6"/>
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.6" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22">
+      <c r="C20" s="12"/>
+      <c r="D20" s="18">
         <v>314</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22">
-        <v>314</v>
-      </c>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
